--- a/AppData/WorkingData/XAML.xlsx
+++ b/AppData/WorkingData/XAML.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris.banwarth\GitHub\DungineStudio\src\AppData\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris.banwarth\GitHub\DotfilesAndGistsEtc\AppData\WorkingData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783855E5-EAEA-41B7-A716-C1A3D68B7CDE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293B0845-4EB2-4A61-BBD8-4DEC451FB0FA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{32DC407A-5F2D-4E9F-82D8-FF441038A216}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="59">
   <si>
     <t>x:Name="NameOfControl"</t>
   </si>
@@ -203,6 +203,60 @@
   </si>
   <si>
     <t>EVENTS</t>
+  </si>
+  <si>
+    <t>Button</t>
+  </si>
+  <si>
+    <t>Click</t>
+  </si>
+  <si>
+    <t>Click="MethodName"</t>
+  </si>
+  <si>
+    <t>StackPanel</t>
+  </si>
+  <si>
+    <t>Orientation</t>
+  </si>
+  <si>
+    <t>Visibility</t>
+  </si>
+  <si>
+    <r>
+      <t>Orientation="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Vertical</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Visibility="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Hidden</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -288,7 +342,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -324,6 +378,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -638,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE9A3103-2A89-4073-BBB9-E30250AAF418}">
-  <dimension ref="A7:R87"/>
+  <dimension ref="A7:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -667,7 +724,7 @@
     </row>
     <row r="8" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="17" t="s">
         <v>32</v>
       </c>
       <c r="D8" s="9" t="s">
@@ -680,7 +737,7 @@
     </row>
     <row r="9" spans="2:18" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="13"/>
-      <c r="C9" s="8"/>
+      <c r="C9" s="17"/>
       <c r="D9" s="9" t="s">
         <v>16</v>
       </c>
@@ -691,7 +748,7 @@
     </row>
     <row r="10" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="13"/>
-      <c r="C10" s="8"/>
+      <c r="C10" s="17"/>
       <c r="D10" s="9" t="s">
         <v>4</v>
       </c>
@@ -712,7 +769,7 @@
     </row>
     <row r="11" spans="2:18" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="13"/>
-      <c r="C11" s="8"/>
+      <c r="C11" s="17"/>
       <c r="D11" s="9" t="s">
         <v>17</v>
       </c>
@@ -727,7 +784,7 @@
     </row>
     <row r="12" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="13"/>
-      <c r="C12" s="8"/>
+      <c r="C12" s="17"/>
       <c r="D12" s="9" t="s">
         <v>18</v>
       </c>
@@ -746,7 +803,7 @@
     </row>
     <row r="13" spans="2:18" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="13"/>
-      <c r="C13" s="8"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="9" t="s">
         <v>19</v>
       </c>
@@ -757,7 +814,7 @@
     </row>
     <row r="14" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="13"/>
-      <c r="C14" s="8"/>
+      <c r="C14" s="17"/>
       <c r="D14" s="9" t="s">
         <v>20</v>
       </c>
@@ -768,7 +825,7 @@
     </row>
     <row r="15" spans="2:18" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="13"/>
-      <c r="C15" s="8"/>
+      <c r="C15" s="17"/>
       <c r="D15" s="9" t="s">
         <v>21</v>
       </c>
@@ -786,7 +843,7 @@
     <row r="17" spans="2:6" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="14"/>
       <c r="C17" s="8" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>24</v>
@@ -800,301 +857,440 @@
       <c r="B18" s="14"/>
       <c r="C18" s="8"/>
       <c r="D18" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>38</v>
+        <v>52</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="11" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="2:6" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="14"/>
-      <c r="C19" s="7"/>
+      <c r="C19" s="8"/>
       <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="11"/>
     </row>
     <row r="20" spans="2:6" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="14"/>
-      <c r="C20" s="7" t="s">
-        <v>35</v>
+      <c r="C20" s="17" t="s">
+        <v>37</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>36</v>
+        <v>24</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="11" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="2:6" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="14"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="9"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="22" spans="2:6" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="14"/>
-      <c r="C22" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="11" t="s">
-        <v>34</v>
-      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="9"/>
     </row>
     <row r="23" spans="2:6" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="14"/>
-      <c r="C23" s="8"/>
+      <c r="C23" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="D23" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="11" t="s">
-        <v>12</v>
+        <v>27</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="2:6" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="14"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>25</v>
-      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="9"/>
     </row>
     <row r="25" spans="2:6" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="14"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="9"/>
-      <c r="F25" s="11"/>
+      <c r="C25" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="11" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="26" spans="2:6" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="14"/>
-      <c r="C26" s="8" t="s">
-        <v>40</v>
-      </c>
+      <c r="C26" s="17"/>
       <c r="D26" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>41</v>
+        <v>22</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="2:6" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="14"/>
-      <c r="C27" s="8"/>
+      <c r="C27" s="17"/>
       <c r="D27" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>44</v>
+        <v>17</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="2:6" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="14"/>
       <c r="C28" s="7"/>
       <c r="D28" s="9"/>
-      <c r="F28" s="12"/>
+      <c r="F28" s="11"/>
     </row>
     <row r="29" spans="2:6" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="14"/>
-      <c r="C29" s="8" t="s">
-        <v>29</v>
+      <c r="C29" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>26</v>
+        <v>42</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="2:6" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="14"/>
-      <c r="C30" s="8"/>
+      <c r="C30" s="17"/>
       <c r="D30" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="11" t="s">
-        <v>12</v>
+        <v>43</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="2:6" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="14"/>
-      <c r="C31" s="7"/>
+      <c r="C31" s="8"/>
       <c r="D31" s="9"/>
+      <c r="F31" s="12"/>
     </row>
     <row r="32" spans="2:6" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="14"/>
       <c r="C32" s="8" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E32" s="9"/>
-      <c r="F32" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="14"/>
       <c r="C33" s="8"/>
       <c r="D33" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E33" s="9"/>
-      <c r="F33" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="14"/>
       <c r="C34" s="8"/>
-      <c r="D34" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D34" s="9"/>
+      <c r="F34" s="12"/>
+    </row>
+    <row r="35" spans="2:6" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="14"/>
       <c r="C35" s="8"/>
-      <c r="D35" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D35" s="9"/>
+      <c r="F35" s="12"/>
+    </row>
+    <row r="36" spans="2:6" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="14"/>
       <c r="C36" s="8"/>
-      <c r="D36" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D36" s="9"/>
+      <c r="F36" s="12"/>
+    </row>
+    <row r="37" spans="2:6" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="14"/>
       <c r="C37" s="7"/>
       <c r="D37" s="9"/>
-    </row>
-    <row r="38" spans="2:7" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="13"/>
-      <c r="C38" s="7" t="s">
+      <c r="F37" s="12"/>
+    </row>
+    <row r="38" spans="2:6" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="14"/>
+      <c r="C38" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="14"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="9"/>
+      <c r="F39" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="14"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="9"/>
+    </row>
+    <row r="41" spans="2:6" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="14"/>
+      <c r="C41" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41" s="9"/>
+      <c r="F41" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="14"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42" s="9"/>
+      <c r="F42" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="14"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="14"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E44" s="4"/>
+      <c r="F44" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="14"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="14"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="9"/>
+      <c r="F46" s="11"/>
+    </row>
+    <row r="47" spans="2:6" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="14"/>
+      <c r="C47" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E47" s="9"/>
+      <c r="F47" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="14"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E48" s="9"/>
+      <c r="F48" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="14"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="14"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E50" s="4"/>
+      <c r="F50" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="14"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C52" s="7"/>
+      <c r="D52" s="9"/>
+    </row>
+    <row r="53" spans="2:7" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="13"/>
+      <c r="C53" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D53" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E38" s="4"/>
-      <c r="F38" s="10" t="s">
+      <c r="E53" s="4"/>
+      <c r="F53" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="2:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="7"/>
-      <c r="D39" s="9"/>
-    </row>
-    <row r="40" spans="2:7" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="16"/>
-      <c r="C40" s="15" t="s">
+    <row r="54" spans="2:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C54" s="7"/>
+      <c r="D54" s="9"/>
+    </row>
+    <row r="55" spans="2:7" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="16"/>
+      <c r="C55" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D55" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E40" s="4"/>
-      <c r="F40" s="10" t="s">
+      <c r="E55" s="4"/>
+      <c r="F55" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="2:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="7"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="10"/>
-    </row>
-    <row r="42" spans="2:7" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="7"/>
-      <c r="D42" s="9"/>
-      <c r="F42" s="11"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E43" s="1"/>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E44" s="1"/>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="6"/>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="6"/>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="6"/>
-    </row>
-    <row r="53" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D53" s="3"/>
-    </row>
-    <row r="57" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="F57" s="1"/>
-    </row>
-    <row r="59" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D59" s="1"/>
+    <row r="56" spans="2:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C56" s="7"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="10"/>
+    </row>
+    <row r="57" spans="2:7" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C57" s="7"/>
+      <c r="D57" s="9"/>
+      <c r="F57" s="11"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-    </row>
-    <row r="66" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-    </row>
-    <row r="67" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-    </row>
-    <row r="82" spans="5:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="6"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="6"/>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="6"/>
+    </row>
+    <row r="68" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D68" s="3"/>
+    </row>
+    <row r="72" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F72" s="1"/>
+    </row>
+    <row r="74" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+    </row>
+    <row r="81" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+    </row>
+    <row r="82" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D82" s="1"/>
       <c r="E82" s="1"/>
-    </row>
-    <row r="83" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E83" s="1"/>
-    </row>
-    <row r="84" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E84" s="1"/>
-    </row>
-    <row r="85" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E85" s="1"/>
-    </row>
-    <row r="86" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E86" s="1"/>
-    </row>
-    <row r="87" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E87" s="1"/>
+      <c r="F82" s="1"/>
+    </row>
+    <row r="97" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E97" s="1"/>
+    </row>
+    <row r="98" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E98" s="1"/>
+    </row>
+    <row r="99" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E99" s="1"/>
+    </row>
+    <row r="100" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E100" s="1"/>
+    </row>
+    <row r="101" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E101" s="1"/>
+    </row>
+    <row r="102" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E102" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="C47:C51"/>
     <mergeCell ref="C8:C15"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="C25:C27"/>
     <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C41:C45"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C20:C21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
